--- a/published-data/fonds-solidarite/fds-2020-06-24/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-06-24/fonds-solidarite-volet-2-regional-classe-effectif-latest.xlsx
@@ -79,163 +79,163 @@
     <t>19</t>
   </si>
   <si>
-    <t>69</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>687</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>332</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>687</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>758</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>972</t>
-  </si>
-  <si>
-    <t>359</t>
+    <t>221</t>
+  </si>
+  <si>
+    <t>984</t>
+  </si>
+  <si>
+    <t>363</t>
   </si>
   <si>
     <t>93</t>
@@ -301,13 +301,13 @@
     <t>8000.00</t>
   </si>
   <si>
-    <t>154393.00</t>
-  </si>
-  <si>
-    <t>822033.00</t>
-  </si>
-  <si>
-    <t>355000.00</t>
+    <t>156393.00</t>
+  </si>
+  <si>
+    <t>824033.00</t>
+  </si>
+  <si>
+    <t>357000.00</t>
   </si>
   <si>
     <t>125545.00</t>
@@ -316,162 +316,165 @@
     <t>23850.00</t>
   </si>
   <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>91500.00</t>
+  </si>
+  <si>
+    <t>636821.59</t>
+  </si>
+  <si>
+    <t>275500.00</t>
+  </si>
+  <si>
+    <t>107000.00</t>
+  </si>
+  <si>
+    <t>23500.00</t>
+  </si>
+  <si>
+    <t>69000.00</t>
+  </si>
+  <si>
+    <t>277336.66</t>
+  </si>
+  <si>
+    <t>171500.00</t>
+  </si>
+  <si>
+    <t>56500.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
     <t>14000.00</t>
   </si>
   <si>
-    <t>91500.00</t>
-  </si>
-  <si>
-    <t>636821.59</t>
-  </si>
-  <si>
-    <t>275500.00</t>
-  </si>
-  <si>
-    <t>107000.00</t>
-  </si>
-  <si>
-    <t>23500.00</t>
-  </si>
-  <si>
-    <t>40500.00</t>
-  </si>
-  <si>
-    <t>241336.66</t>
-  </si>
-  <si>
-    <t>145000.00</t>
+    <t>137000.00</t>
+  </si>
+  <si>
+    <t>881713.00</t>
+  </si>
+  <si>
+    <t>386000.00</t>
+  </si>
+  <si>
+    <t>195474.00</t>
+  </si>
+  <si>
+    <t>43500.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>42500.00</t>
+  </si>
+  <si>
+    <t>270500.00</t>
+  </si>
+  <si>
+    <t>177200.00</t>
+  </si>
+  <si>
+    <t>52495.14</t>
+  </si>
+  <si>
+    <t>34500.00</t>
+  </si>
+  <si>
+    <t>46500.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>29500.00</t>
+  </si>
+  <si>
+    <t>109500.00</t>
+  </si>
+  <si>
+    <t>881500.00</t>
+  </si>
+  <si>
+    <t>522000.00</t>
+  </si>
+  <si>
+    <t>191377.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>39000.00</t>
+  </si>
+  <si>
+    <t>354000.00</t>
+  </si>
+  <si>
+    <t>210500.00</t>
+  </si>
+  <si>
+    <t>97500.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>149000.00</t>
+  </si>
+  <si>
+    <t>611981.79</t>
+  </si>
+  <si>
+    <t>304121.81</t>
+  </si>
+  <si>
+    <t>92441.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>385713.00</t>
+  </si>
+  <si>
+    <t>1660416.83</t>
+  </si>
+  <si>
+    <t>774400.00</t>
+  </si>
+  <si>
+    <t>296000.00</t>
+  </si>
+  <si>
+    <t>53883.20</t>
+  </si>
+  <si>
+    <t>31500.00</t>
+  </si>
+  <si>
+    <t>354500.00</t>
+  </si>
+  <si>
+    <t>1795698.76</t>
+  </si>
+  <si>
+    <t>841160.00</t>
+  </si>
+  <si>
+    <t>329120.07</t>
   </si>
   <si>
     <t>48000.00</t>
   </si>
   <si>
-    <t>12000.00</t>
-  </si>
-  <si>
-    <t>10000.00</t>
-  </si>
-  <si>
-    <t>137000.00</t>
-  </si>
-  <si>
-    <t>881713.00</t>
-  </si>
-  <si>
-    <t>382500.00</t>
-  </si>
-  <si>
-    <t>195474.00</t>
-  </si>
-  <si>
-    <t>43500.00</t>
-  </si>
-  <si>
-    <t>22000.00</t>
-  </si>
-  <si>
-    <t>42500.00</t>
-  </si>
-  <si>
-    <t>270500.00</t>
-  </si>
-  <si>
-    <t>177200.00</t>
-  </si>
-  <si>
-    <t>52495.14</t>
-  </si>
-  <si>
-    <t>34500.00</t>
-  </si>
-  <si>
-    <t>46500.00</t>
-  </si>
-  <si>
-    <t>9500.00</t>
-  </si>
-  <si>
-    <t>12500.00</t>
-  </si>
-  <si>
-    <t>29500.00</t>
-  </si>
-  <si>
-    <t>109500.00</t>
-  </si>
-  <si>
-    <t>881500.00</t>
-  </si>
-  <si>
-    <t>514000.00</t>
-  </si>
-  <si>
-    <t>191377.00</t>
-  </si>
-  <si>
-    <t>55000.00</t>
-  </si>
-  <si>
-    <t>39000.00</t>
-  </si>
-  <si>
-    <t>354000.00</t>
-  </si>
-  <si>
-    <t>210500.00</t>
-  </si>
-  <si>
-    <t>97500.00</t>
-  </si>
-  <si>
-    <t>18000.00</t>
-  </si>
-  <si>
-    <t>139000.00</t>
-  </si>
-  <si>
-    <t>604481.79</t>
-  </si>
-  <si>
-    <t>290121.81</t>
-  </si>
-  <si>
-    <t>92441.00</t>
-  </si>
-  <si>
-    <t>21000.00</t>
-  </si>
-  <si>
-    <t>385713.00</t>
-  </si>
-  <si>
-    <t>1660416.83</t>
-  </si>
-  <si>
-    <t>774400.00</t>
-  </si>
-  <si>
-    <t>296000.00</t>
-  </si>
-  <si>
-    <t>53883.20</t>
-  </si>
-  <si>
-    <t>31500.00</t>
-  </si>
-  <si>
-    <t>354500.00</t>
-  </si>
-  <si>
-    <t>1795698.76</t>
-  </si>
-  <si>
-    <t>841160.00</t>
-  </si>
-  <si>
-    <t>329120.07</t>
-  </si>
-  <si>
     <t>34000.00</t>
   </si>
   <si>
@@ -490,16 +493,13 @@
     <t>22500.00</t>
   </si>
   <si>
-    <t>16000.00</t>
-  </si>
-  <si>
-    <t>491390.00</t>
-  </si>
-  <si>
-    <t>2294295.00</t>
-  </si>
-  <si>
-    <t>1108531.50</t>
+    <t>505390.00</t>
+  </si>
+  <si>
+    <t>2324295.00</t>
+  </si>
+  <si>
+    <t>1122531.50</t>
   </si>
   <si>
     <t>347000.00</t>
@@ -1162,7 +1162,7 @@
         <v>178</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>201</v>
@@ -1904,7 +1904,7 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
         <v>116</v>
@@ -1982,7 +1982,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
         <v>119</v>
@@ -2008,7 +2008,7 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
         <v>120</v>
@@ -2034,7 +2034,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
         <v>121</v>
@@ -2060,7 +2060,7 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
         <v>122</v>
@@ -2086,7 +2086,7 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
         <v>123</v>
@@ -2138,7 +2138,7 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
         <v>122</v>
@@ -2190,7 +2190,7 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
         <v>126</v>
@@ -2320,7 +2320,7 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
         <v>131</v>
@@ -2346,7 +2346,7 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
         <v>87</v>
@@ -2372,7 +2372,7 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
         <v>132</v>
@@ -2476,7 +2476,7 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D58" t="s">
         <v>136</v>
@@ -2736,7 +2736,7 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D68" t="s">
         <v>146</v>
@@ -2762,7 +2762,7 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D69" t="s">
         <v>147</v>
@@ -2892,10 +2892,10 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E74" t="s">
         <v>176</v>
@@ -2921,7 +2921,7 @@
         <v>68</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E75" t="s">
         <v>176</v>
@@ -2947,7 +2947,7 @@
         <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E76" t="s">
         <v>177</v>
@@ -2970,10 +2970,10 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E77" t="s">
         <v>177</v>
@@ -2996,10 +2996,10 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E78" t="s">
         <v>177</v>
@@ -3025,7 +3025,7 @@
         <v>70</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E79" t="s">
         <v>177</v>
@@ -3051,7 +3051,7 @@
         <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E80" t="s">
         <v>177</v>
@@ -3074,10 +3074,10 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="E81" t="s">
         <v>177</v>
